--- a/2-analyzing-data-with-python-in-excel/analyzing-data-with-python-in-excel-solutions.xlsx
+++ b/2-analyzing-data-with-python-in-excel/analyzing-data-with-python-in-excel-solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\xlgs-pie\2-analyzing-data-with-python-in-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\global-excel-summit-python-in-excel-2025\2-analyzing-data-with-python-in-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0342D734-702B-419A-94D2-B3E3CB23E312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31AB0BB-70F5-4F44-9163-FCE9620F384B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="12480" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="3" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="2" r:id="rId1"/>
@@ -1229,27 +1229,27 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="8.40625" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
-    <col min="10" max="10" width="15.953125" customWidth="1"/>
-    <col min="11" max="11" width="7.953125" customWidth="1"/>
+    <col min="2" max="2" width="11.8515625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.48046875" customWidth="1"/>
+    <col min="5" max="5" width="10.18359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.48046875" customWidth="1"/>
+    <col min="8" max="8" width="10.48046875" customWidth="1"/>
+    <col min="9" max="9" width="13.18359375" customWidth="1"/>
+    <col min="10" max="10" width="15.9609375" customWidth="1"/>
+    <col min="11" max="11" width="7.9609375" customWidth="1"/>
     <col min="13" max="13" width="11.40625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>country</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>UK</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A246">
         <v>245</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A247">
         <v>246</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A248">
         <v>247</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A249">
         <v>248</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A250">
         <v>249</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A251">
         <v>250</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A252">
         <v>251</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A253">
         <v>252</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A254">
         <v>253</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A255">
         <v>254</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A256">
         <v>255</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A270">
         <v>269</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A272">
         <v>271</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A274">
         <v>273</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A275">
         <v>274</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A276">
         <v>275</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A277">
         <v>276</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A278">
         <v>277</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A279">
         <v>278</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A280">
         <v>279</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A281">
         <v>280</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A282">
         <v>281</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A283">
         <v>282</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A284">
         <v>283</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A285">
         <v>284</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A286">
         <v>285</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A287">
         <v>286</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A288">
         <v>287</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A290">
         <v>289</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A292">
         <v>291</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A294">
         <v>293</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A295">
         <v>294</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A296">
         <v>295</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A297">
         <v>296</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A298">
         <v>297</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A299">
         <v>298</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A300">
         <v>299</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A301">
         <v>300</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A302">
         <v>301</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A303">
         <v>302</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A304">
         <v>303</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A305">
         <v>304</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A306">
         <v>305</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A307">
         <v>306</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A308">
         <v>307</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A309">
         <v>308</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A310">
         <v>309</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A311">
         <v>310</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A312">
         <v>311</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A313">
         <v>312</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A314">
         <v>313</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A315">
         <v>314</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A316">
         <v>315</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A317">
         <v>316</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A318">
         <v>317</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A319">
         <v>318</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A320">
         <v>319</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A321">
         <v>320</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A322">
         <v>321</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A323">
         <v>322</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A324">
         <v>323</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A325">
         <v>324</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A326">
         <v>325</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A327">
         <v>326</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A328">
         <v>327</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A329">
         <v>328</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A330">
         <v>329</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A331">
         <v>330</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A332">
         <v>331</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A333">
         <v>332</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A334">
         <v>333</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A335">
         <v>334</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A336">
         <v>335</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A337">
         <v>336</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A338">
         <v>337</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A339">
         <v>338</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A340">
         <v>339</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A341">
         <v>340</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A342">
         <v>341</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A343">
         <v>342</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A344">
         <v>343</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A345">
         <v>344</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A346">
         <v>345</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A347">
         <v>346</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A348">
         <v>347</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A349">
         <v>348</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A350">
         <v>349</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A351">
         <v>350</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A352">
         <v>351</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A353">
         <v>352</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A354">
         <v>353</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A355">
         <v>354</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A356">
         <v>355</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A357">
         <v>356</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A358">
         <v>357</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A359">
         <v>358</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A360">
         <v>359</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A361">
         <v>360</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A362">
         <v>361</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A363">
         <v>362</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A364">
         <v>363</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A365">
         <v>364</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A366">
         <v>365</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A367">
         <v>366</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A368">
         <v>367</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A369">
         <v>368</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A370">
         <v>369</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A371">
         <v>370</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A372">
         <v>371</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A373">
         <v>372</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A374">
         <v>373</v>
       </c>
@@ -14517,7 +14517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A375">
         <v>374</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A376">
         <v>375</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A377">
         <v>376</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A378">
         <v>377</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A379">
         <v>378</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A380">
         <v>379</v>
       </c>
@@ -14727,7 +14727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A381">
         <v>380</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A382">
         <v>381</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A383">
         <v>382</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A384">
         <v>383</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A385">
         <v>384</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A386">
         <v>385</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A387">
         <v>386</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A388">
         <v>387</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A389">
         <v>388</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A390">
         <v>389</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A391">
         <v>390</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A392">
         <v>391</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A393">
         <v>392</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A394">
         <v>393</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A395">
         <v>394</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A396">
         <v>395</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A397">
         <v>396</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A398">
         <v>397</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A399">
         <v>398</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A400">
         <v>399</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A401">
         <v>400</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A402">
         <v>401</v>
       </c>
@@ -15497,7 +15497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A403">
         <v>402</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A404">
         <v>403</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A405">
         <v>404</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A406">
         <v>405</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A407">
         <v>406</v>
       </c>
@@ -15672,7 +15672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A408">
         <v>407</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A409">
         <v>408</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A410">
         <v>409</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A411">
         <v>410</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A412">
         <v>411</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A413">
         <v>412</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A414">
         <v>413</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A415">
         <v>414</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A416">
         <v>415</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A417">
         <v>416</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A418">
         <v>417</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A419">
         <v>418</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A420">
         <v>419</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A421">
         <v>420</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A422">
         <v>421</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A423">
         <v>422</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A424">
         <v>423</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A425">
         <v>424</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A426">
         <v>425</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A427">
         <v>426</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A428">
         <v>427</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A429">
         <v>428</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A430">
         <v>429</v>
       </c>
@@ -16477,7 +16477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A431">
         <v>430</v>
       </c>
@@ -16512,7 +16512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A432">
         <v>431</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A433">
         <v>432</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A434">
         <v>433</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A435">
         <v>434</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A436">
         <v>435</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A437">
         <v>436</v>
       </c>
@@ -16722,7 +16722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A438">
         <v>437</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A439">
         <v>438</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A440">
         <v>439</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A441">
         <v>440</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A442">
         <v>441</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A443">
         <v>442</v>
       </c>
@@ -16932,7 +16932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A444">
         <v>443</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A445">
         <v>444</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A446">
         <v>445</v>
       </c>
@@ -17037,7 +17037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A447">
         <v>446</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A448">
         <v>447</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A449">
         <v>448</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A450">
         <v>449</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A451">
         <v>450</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A452">
         <v>451</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A453">
         <v>452</v>
       </c>
@@ -17282,7 +17282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A454">
         <v>453</v>
       </c>
@@ -17317,7 +17317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A455">
         <v>454</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A456">
         <v>455</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A457">
         <v>456</v>
       </c>
@@ -17422,7 +17422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A458">
         <v>457</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A459">
         <v>458</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A460">
         <v>459</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A461">
         <v>460</v>
       </c>
@@ -17562,7 +17562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A462">
         <v>461</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A463">
         <v>462</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A464">
         <v>463</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A465">
         <v>464</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A466">
         <v>465</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A467">
         <v>466</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A468">
         <v>467</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A469">
         <v>468</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A470">
         <v>469</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A471">
         <v>470</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A472">
         <v>471</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A473">
         <v>472</v>
       </c>
@@ -17982,7 +17982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A474">
         <v>473</v>
       </c>
@@ -18017,7 +18017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A475">
         <v>474</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A476">
         <v>475</v>
       </c>
@@ -18087,7 +18087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A477">
         <v>476</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A478">
         <v>477</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A479">
         <v>478</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A480">
         <v>479</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A481">
         <v>480</v>
       </c>
@@ -18262,7 +18262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A482">
         <v>481</v>
       </c>
@@ -18297,7 +18297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A483">
         <v>482</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A484">
         <v>483</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A485">
         <v>484</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A486">
         <v>485</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A487">
         <v>486</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A488">
         <v>487</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A489">
         <v>488</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A490">
         <v>489</v>
       </c>
@@ -18577,7 +18577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A491">
         <v>490</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A492">
         <v>491</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A493">
         <v>492</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A494">
         <v>493</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A495">
         <v>494</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A496">
         <v>495</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A497">
         <v>496</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A498">
         <v>497</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A499">
         <v>498</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A500">
         <v>499</v>
       </c>
@@ -18921,7 +18921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A501">
         <v>500</v>
       </c>
@@ -18973,12 +18973,12 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.953125" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="9.9609375" defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="2" max="2" width="14.40625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A1" t="str" cm="1">
         <f t="array" ref="A1:K6">_xlfn._xlws.PY(1,0)</f>
         <v>order_id</v>
@@ -19014,7 +19014,7 @@
         <v>country</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19049,7 +19049,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19084,7 +19084,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>UK</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A8" t="str" cm="1">
         <f t="array" ref="A8:K13">_xlfn._xlws.PY(2,0)</f>
         <v>order_id</v>
@@ -19225,7 +19225,7 @@
         <v>country</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>496</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>497</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>498</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>USA</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>499</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>France</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>500</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>USA</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A15" t="str" cm="1">
         <f t="array" ref="A15:K20">_xlfn._xlws.PY(3,0)</f>
         <v>order_id</v>
@@ -19436,7 +19436,7 @@
         <v>country</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>47</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A17">
         <v>465</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>France</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A18">
         <v>301</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A19">
         <v>147</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A20">
         <v>76</v>
       </c>
@@ -19611,7 +19611,7 @@
         <v>USA</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A23" t="str" cm="1">
         <f t="array" ref="A23:B33">_xlfn._xlws.PY(4,0)</f>
         <v>product_name</v>
@@ -19620,7 +19620,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A24" t="str">
         <v>quantity</v>
       </c>
@@ -19628,7 +19628,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A25" t="str">
         <v>product_id</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A26" t="str">
         <v>category</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A27" t="str">
         <v>customer_age</v>
       </c>
@@ -19652,7 +19652,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A28" t="str">
         <v>customer_gender</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A29" t="str">
         <v>order_id</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A30" t="str">
         <v>customer_id</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A31" t="str">
         <v>unit_price</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A32" t="str">
         <v>order_date</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A33" t="str">
         <v>country</v>
       </c>
@@ -19700,17 +19700,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A53" t="str" cm="1">
         <f t="array" ref="A53:B63">_xlfn._xlws.PY(5,0)</f>
         <v>order_id</v>
@@ -19719,7 +19719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A54" t="str">
         <v>customer_id</v>
       </c>
@@ -19727,7 +19727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A55" t="str">
         <v>product_id</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A56" t="str">
         <v>product_name</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A57" t="str">
         <v>category</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A58" t="str">
         <v>unit_price</v>
       </c>
@@ -19759,7 +19759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A59" t="str">
         <v>quantity</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A60" t="str">
         <v>order_date</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A61" t="str">
         <v>customer_age</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A62" t="str">
         <v>customer_gender</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A63" t="str">
         <v>country</v>
       </c>
@@ -19799,12 +19799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A65" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A66" t="str" cm="1">
         <f t="array" ref="A66:B76">_xlfn._xlws.PY(6,0)</f>
         <v>order_id</v>
@@ -19813,7 +19813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A67" t="str">
         <v>customer_id</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A68" t="str">
         <v>product_id</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A69" t="str">
         <v>product_name</v>
       </c>
@@ -19837,7 +19837,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A70" t="str">
         <v>category</v>
       </c>
@@ -19845,7 +19845,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A71" t="str">
         <v>unit_price</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A72" t="str">
         <v>quantity</v>
       </c>
@@ -19861,7 +19861,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A73" t="str">
         <v>order_date</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A74" t="str">
         <v>customer_age</v>
       </c>
@@ -19877,7 +19877,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A75" t="str">
         <v>customer_gender</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A76" t="str">
         <v>country</v>
       </c>
@@ -19906,18 +19906,18 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.04296875" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="6.03515625" defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="11.40625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.0703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.0703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.40625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.76953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A1" t="str" cm="1">
         <f t="array" ref="A1:G9">_xlfn._xlws.PY(7,0)</f>
         <v/>
@@ -19941,7 +19941,7 @@
         <v>customer_age</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A2" t="str">
         <v>count</v>
       </c>
@@ -19964,7 +19964,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A3" t="str">
         <v>mean</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>41.390781563126254</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A4" t="str">
         <v>std</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>13.761508334369767</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A5" t="str">
         <v>min</v>
       </c>
@@ -20033,7 +20033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A6" t="str">
         <v>25%</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A7" t="str">
         <v>50%</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A8" t="str">
         <v>75%</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A9" t="str">
         <v>max</v>
       </c>
@@ -20125,7 +20125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A11" t="str" cm="1">
         <f t="array" ref="A11:G19">_xlfn._xlws.PY(8,0)</f>
         <v/>
@@ -20149,7 +20149,7 @@
         <v>customer_age</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A12" t="str">
         <v>count</v>
       </c>
@@ -20172,7 +20172,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A13" t="str">
         <v>mean</v>
       </c>
@@ -20195,7 +20195,7 @@
         <v>41.390781563126254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A14" t="str">
         <v>std</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>13.761508334369767</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A15" t="str">
         <v>min</v>
       </c>
@@ -20241,7 +20241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A16" t="str">
         <v>10%</v>
       </c>
@@ -20264,7 +20264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A17" t="str">
         <v>50%</v>
       </c>
@@ -20287,7 +20287,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A18" t="str">
         <v>90%</v>
       </c>
@@ -20310,7 +20310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A19" t="str">
         <v>max</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A21" t="str" cm="1">
         <f t="array" ref="A21:F27">_xlfn._xlws.PY(9,0)</f>
         <v/>
@@ -20354,7 +20354,7 @@
         <v>country</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A22" t="str">
         <v>count</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A23" t="str">
         <v>unique</v>
       </c>
@@ -20394,7 +20394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A24" t="str">
         <v>top</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A25" t="str">
         <v>freq</v>
       </c>
@@ -20434,7 +20434,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A26" t="str">
         <v>first</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A27" t="str">
         <v>last</v>
       </c>
@@ -20484,18 +20484,16 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3:G9">_xlfn._xlws.PY(10,0)</f>
         <v/>
@@ -20519,7 +20517,7 @@
         <v>customer_age</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A4" t="str">
         <v>order_id</v>
       </c>
@@ -20542,7 +20540,7 @@
         <v>0.1163285028496904</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A5" t="str">
         <v>customer_id</v>
       </c>
@@ -20565,7 +20563,7 @@
         <v>3.7988368182194907E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A6" t="str">
         <v>product_id</v>
       </c>
@@ -20588,7 +20586,7 @@
         <v>-6.1720289262879084E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A7" t="str">
         <v>unit_price</v>
       </c>
@@ -20611,7 +20609,7 @@
         <v>-3.2941193073491019E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A8" t="str">
         <v>quantity</v>
       </c>
@@ -20634,7 +20632,7 @@
         <v>2.5407608858016915E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A9" t="str">
         <v>customer_age</v>
       </c>
@@ -20657,12 +20655,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A14" t="e" cm="1" vm="19">
         <f t="array" ref="A14">_xlfn._xlws.PY(11,0)</f>
         <v>#VALUE!</v>
@@ -20679,14 +20677,16 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="11.40625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A1" t="str" cm="1">
         <f t="array" ref="A1:K7">_xlfn._xlws.PY(12,0)</f>
         <v/>
@@ -20722,7 +20722,7 @@
         <v>country</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A2" t="str">
         <v>order_date</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A3" vm="1">
         <v>44879</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A4" vm="2">
         <v>44840</v>
       </c>
@@ -20827,7 +20827,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A5" vm="3">
         <v>44688</v>
       </c>
@@ -20862,7 +20862,7 @@
         <v>UK</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A6" vm="4">
         <v>44690</v>
       </c>
@@ -20897,7 +20897,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A7" vm="5">
         <v>44619</v>
       </c>
@@ -20932,7 +20932,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A10" t="str" cm="1">
         <f t="array" ref="A10:B15">_xlfn._xlws.PY(13,0)</f>
         <v>order_date</v>
@@ -20941,7 +20941,7 @@
         <v>quantity</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A11" vm="20">
         <v>44563</v>
       </c>
@@ -20949,7 +20949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A12" vm="21">
         <v>44570</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A13" vm="22">
         <v>44577</v>
       </c>
@@ -20965,7 +20965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A14" vm="23">
         <v>44584</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A15" vm="24">
         <v>44591</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A18" t="str" cm="1">
         <f t="array" ref="A18:B23">_xlfn._xlws.PY(14,0)</f>
         <v>order_date</v>
@@ -20990,7 +20990,7 @@
         <v>sales</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A19" vm="25">
         <v>44592</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v>54020</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A20" vm="26">
         <v>44620</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>61316</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A21" vm="27">
         <v>44651</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>54013</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A22" vm="28">
         <v>44681</v>
       </c>
@@ -21022,7 +21022,7 @@
         <v>65379</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A23" vm="29">
         <v>44712</v>
       </c>
@@ -21030,7 +21030,7 @@
         <v>64927</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A25" t="str" cm="1">
         <f t="array" ref="A25:D30">_xlfn._xlws.PY(15,0)</f>
         <v>order_date</v>
@@ -21045,7 +21045,7 @@
         <v>previous_month_sales</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A26" vm="25">
         <v>44592</v>
       </c>
@@ -21059,7 +21059,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A27" vm="26">
         <v>44620</v>
       </c>
@@ -21073,7 +21073,7 @@
         <v>54020</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A28" vm="27">
         <v>44651</v>
       </c>
@@ -21087,7 +21087,7 @@
         <v>61316</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A29" vm="28">
         <v>44681</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>54013</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A30" vm="29">
         <v>44712</v>
       </c>
@@ -21115,7 +21115,7 @@
         <v>65379</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A35" t="str" cm="1">
         <f t="array" ref="A35:F40">_xlfn._xlws.PY(16,0)</f>
         <v>order_date</v>
@@ -21136,7 +21136,7 @@
         <v>running_ttl_sales</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A36" vm="25">
         <v>44592</v>
       </c>
@@ -21156,7 +21156,7 @@
         <v>54020</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A37" vm="26">
         <v>44620</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>115336</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A38" vm="27">
         <v>44651</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>169349</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A39" vm="28">
         <v>44681</v>
       </c>
@@ -21216,7 +21216,7 @@
         <v>234728</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A40" vm="29">
         <v>44712</v>
       </c>
